--- a/teaching/traditional_assets/database/data/kenya/kenya_food_processing.xlsx
+++ b/teaching/traditional_assets/database/data/kenya/kenya_food_processing.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,43 +591,43 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.003485</v>
+        <v>0.02275</v>
       </c>
       <c r="G2">
-        <v>0.005315614617940197</v>
+        <v>-0.001861407278649935</v>
       </c>
       <c r="H2">
-        <v>0.005315614617940197</v>
+        <v>-0.001861407278649935</v>
       </c>
       <c r="I2">
-        <v>-0.09517628733146066</v>
+        <v>-0.03318800632395387</v>
       </c>
       <c r="J2">
-        <v>-0.09517628733146066</v>
+        <v>-0.03318800632395387</v>
       </c>
       <c r="K2">
-        <v>-4.69</v>
+        <v>-0.552</v>
       </c>
       <c r="L2">
-        <v>-0.07790697674418605</v>
+        <v>-0.007555123660402667</v>
       </c>
       <c r="M2">
-        <v>5.56</v>
+        <v>4.768</v>
       </c>
       <c r="N2">
-        <v>0.08953301127214171</v>
+        <v>0.06727811485819105</v>
       </c>
       <c r="O2">
-        <v>-1.185501066098081</v>
+        <v>-8.637681159420289</v>
       </c>
       <c r="P2">
-        <v>5.56</v>
+        <v>4.768</v>
       </c>
       <c r="Q2">
-        <v>0.08953301127214171</v>
+        <v>0.06727811485819105</v>
       </c>
       <c r="R2">
-        <v>-1.185501066098081</v>
+        <v>-8.637681159420289</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -636,67 +636,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>4.14</v>
+        <v>5.14</v>
       </c>
       <c r="V2">
-        <v>0.06666666666666667</v>
+        <v>0.07252716241004656</v>
       </c>
       <c r="X2">
-        <v>0.08901414396320344</v>
+        <v>0.08038484172650837</v>
       </c>
       <c r="Z2">
-        <v>0.6135152987924425</v>
-      </c>
-      <c r="AA2">
-        <v>-43.58781986992699</v>
+        <v>0.7367146996092802</v>
       </c>
       <c r="AB2">
-        <v>0.08856561313351079</v>
-      </c>
-      <c r="AC2">
-        <v>-43.6763854830605</v>
+        <v>0.08038484172650837</v>
       </c>
       <c r="AD2">
-        <v>1.1</v>
+        <v>4.34</v>
       </c>
       <c r="AE2">
-        <v>0.02306248676965547</v>
+        <v>0.5940765302352066</v>
       </c>
       <c r="AF2">
-        <v>1.123062486769655</v>
+        <v>4.934076530235206</v>
       </c>
       <c r="AG2">
-        <v>-3.016937513230344</v>
+        <v>-0.2059234697647936</v>
       </c>
       <c r="AH2">
-        <v>0.01776349393078946</v>
+        <v>0.06508985738078613</v>
       </c>
       <c r="AI2">
-        <v>0.008968495614682095</v>
+        <v>0.03868829935084415</v>
       </c>
       <c r="AJ2">
-        <v>-0.05106264615017071</v>
+        <v>-0.002914118175402527</v>
       </c>
       <c r="AK2">
-        <v>-0.02491626368931654</v>
+        <v>-0.001682462710635543</v>
       </c>
       <c r="AL2">
-        <v>0.255</v>
+        <v>0.206</v>
       </c>
       <c r="AM2">
-        <v>-0.912</v>
+        <v>-0.875</v>
       </c>
       <c r="AN2">
-        <v>3.188405797101452</v>
+        <v>1.000691722388748</v>
       </c>
       <c r="AO2">
-        <v>-22.54901960784314</v>
+        <v>-12.01456310679612</v>
       </c>
       <c r="AP2">
-        <v>-8.744746415160424</v>
+        <v>-0.04748062480165866</v>
       </c>
       <c r="AQ2">
-        <v>6.304824561403509</v>
+        <v>2.828571428571429</v>
       </c>
     </row>
     <row r="3">
@@ -716,43 +710,43 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.00233</v>
+        <v>0.0524</v>
       </c>
       <c r="G3">
-        <v>-0.09033457249070632</v>
+        <v>-0.1168711656441718</v>
       </c>
       <c r="H3">
-        <v>-0.09033457249070632</v>
+        <v>-0.1168711656441718</v>
       </c>
       <c r="I3">
-        <v>-0.1382899628252788</v>
+        <v>-0.03281642043089084</v>
       </c>
       <c r="J3">
-        <v>-0.1382899628252788</v>
+        <v>-0.03281642043089084</v>
       </c>
       <c r="K3">
-        <v>-3.06</v>
+        <v>-1.34</v>
       </c>
       <c r="L3">
-        <v>-0.1137546468401487</v>
+        <v>-0.04110429447852761</v>
       </c>
       <c r="M3">
-        <v>2.2</v>
+        <v>0.751</v>
       </c>
       <c r="N3">
-        <v>0.05789473684210527</v>
+        <v>0.01845208845208845</v>
       </c>
       <c r="O3">
-        <v>-0.7189542483660131</v>
+        <v>-0.5604477611940298</v>
       </c>
       <c r="P3">
-        <v>2.2</v>
+        <v>0.751</v>
       </c>
       <c r="Q3">
-        <v>0.05789473684210527</v>
+        <v>0.01845208845208845</v>
       </c>
       <c r="R3">
-        <v>-0.7189542483660131</v>
+        <v>-0.5604477611940298</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,73 +755,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>4.14</v>
+        <v>5.14</v>
       </c>
       <c r="V3">
-        <v>0.1089473684210526</v>
+        <v>0.1262899262899263</v>
       </c>
       <c r="W3">
-        <v>-0.02797074954296161</v>
+        <v>-0.01283524904214559</v>
       </c>
       <c r="X3">
-        <v>0.0896910040927679</v>
+        <v>0.08641719146736276</v>
       </c>
       <c r="Y3">
-        <v>-0.1176617536357295</v>
+        <v>-0.09925244050950836</v>
       </c>
       <c r="Z3">
-        <v>0.2742099898063201</v>
+        <v>0.3287149337867666</v>
       </c>
       <c r="AA3">
-        <v>-0.03792048929663609</v>
+        <v>-0.01078724746905898</v>
       </c>
       <c r="AB3">
-        <v>0.08882217343343961</v>
+        <v>0.08302338403178902</v>
       </c>
       <c r="AC3">
-        <v>-0.1267426627300757</v>
+        <v>-0.09381063150084801</v>
       </c>
       <c r="AD3">
-        <v>1.1</v>
+        <v>4.34</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.5940765302352066</v>
       </c>
       <c r="AF3">
-        <v>1.1</v>
+        <v>4.934076530235206</v>
       </c>
       <c r="AG3">
-        <v>-3.04</v>
+        <v>-0.2059234697647936</v>
       </c>
       <c r="AH3">
-        <v>0.02813299232736573</v>
+        <v>0.1081226334659385</v>
       </c>
       <c r="AI3">
-        <v>0.008785942492012781</v>
+        <v>0.03868829935084415</v>
       </c>
       <c r="AJ3">
-        <v>-0.08695652173913042</v>
+        <v>-0.005085273882243968</v>
       </c>
       <c r="AK3">
-        <v>-0.02511151495126384</v>
+        <v>-0.001682462710635543</v>
       </c>
       <c r="AL3">
-        <v>0.202</v>
+        <v>0.206</v>
       </c>
       <c r="AM3">
-        <v>-0.296</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="AN3">
-        <v>-0.4526748971193416</v>
+        <v>6.546003016591252</v>
       </c>
       <c r="AO3">
-        <v>-18.41584158415841</v>
+        <v>-5.436893203883496</v>
       </c>
       <c r="AP3">
-        <v>1.251028806584362</v>
+        <v>-0.3105934687251788</v>
       </c>
       <c r="AQ3">
-        <v>12.56756756756757</v>
+        <v>111.9999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -847,43 +841,43 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.009300000000000001</v>
+        <v>0.0345</v>
       </c>
       <c r="G4">
-        <v>0.08258258258258259</v>
+        <v>0.1458904109589041</v>
       </c>
       <c r="H4">
-        <v>0.08258258258258259</v>
+        <v>0.1458904109589041</v>
       </c>
       <c r="I4">
-        <v>-0.0603487236442622</v>
+        <v>-0.01092465753424658</v>
       </c>
       <c r="J4">
-        <v>-0.0603487236442622</v>
+        <v>-0.01092465753424658</v>
       </c>
       <c r="K4">
-        <v>-1.63</v>
+        <v>1.27</v>
       </c>
       <c r="L4">
-        <v>-0.04894894894894895</v>
+        <v>0.04349315068493151</v>
       </c>
       <c r="M4">
-        <v>3.36</v>
+        <v>3.28</v>
       </c>
       <c r="N4">
-        <v>0.1394190871369294</v>
+        <v>0.1569377990430622</v>
       </c>
       <c r="O4">
-        <v>-2.061349693251534</v>
+        <v>2.582677165354331</v>
       </c>
       <c r="P4">
-        <v>3.36</v>
+        <v>3.28</v>
       </c>
       <c r="Q4">
-        <v>0.1394190871369294</v>
+        <v>0.1569377990430622</v>
       </c>
       <c r="R4">
-        <v>-2.061349693251534</v>
+        <v>2.582677165354331</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -898,61 +892,245 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.08833728383363898</v>
-      </c>
-      <c r="Z4">
-        <v>1443.903267353396</v>
-      </c>
-      <c r="AA4">
-        <v>-87.13771925055734</v>
+        <v>0.08038484172650837</v>
       </c>
       <c r="AB4">
-        <v>0.08830905283358197</v>
-      </c>
-      <c r="AC4">
-        <v>-87.22602830339092</v>
+        <v>0.08038484172650837</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.02306248676965547</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.02306248676965547</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.02306248676965547</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0009560347813344236</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0009560347813344236</v>
-      </c>
-      <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-0.616</v>
+        <v>-0.574</v>
       </c>
       <c r="AN4">
         <v>0</v>
       </c>
-      <c r="AO4">
-        <v>-38.30188679245283</v>
-      </c>
       <c r="AP4">
-        <v>0.008310806043119089</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>3.295454545454545</v>
+        <v>0.5557491289198607</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Kenya</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kapchorua Tea Kenya Plc (NASE:KAPC)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Food Processing</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>0.011</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>-0.02787037037037037</v>
+      </c>
+      <c r="J5">
+        <v>-0.02787037037037037</v>
+      </c>
+      <c r="K5">
+        <v>0.185</v>
+      </c>
+      <c r="L5">
+        <v>0.01712962962962963</v>
+      </c>
+      <c r="M5">
+        <v>0.737</v>
+      </c>
+      <c r="N5">
+        <v>0.1318425760286225</v>
+      </c>
+      <c r="O5">
+        <v>3.983783783783784</v>
+      </c>
+      <c r="P5">
+        <v>0.737</v>
+      </c>
+      <c r="Q5">
+        <v>0.1318425760286225</v>
+      </c>
+      <c r="R5">
+        <v>3.983783783783784</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0.08038484172650837</v>
+      </c>
+      <c r="AB5">
+        <v>0.08038484172650837</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>-0.291</v>
+      </c>
+      <c r="AQ5">
+        <v>1.034364261168385</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Kenya</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eaagads Limited (NASE:EGAD)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Food Processing</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>-0.137</v>
+      </c>
+      <c r="G6">
+        <v>-1.265658747300216</v>
+      </c>
+      <c r="H6">
+        <v>-1.265658747300216</v>
+      </c>
+      <c r="I6">
+        <v>-1.587473002159827</v>
+      </c>
+      <c r="J6">
+        <v>-1.587473002159827</v>
+      </c>
+      <c r="K6">
+        <v>-0.667</v>
+      </c>
+      <c r="L6">
+        <v>-1.44060475161987</v>
+      </c>
+      <c r="M6">
+        <v>-0</v>
+      </c>
+      <c r="N6">
+        <v>-0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>-0</v>
+      </c>
+      <c r="Q6">
+        <v>-0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0.08038484172650837</v>
+      </c>
+      <c r="AB6">
+        <v>0.08038484172650837</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>-0</v>
+      </c>
+      <c r="AP6">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
